--- a/Core/U/USART/Список сообщений.xlsx
+++ b/Core/U/USART/Список сообщений.xlsx
@@ -1,29 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Obmen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8C53D-C98F-4B8D-A65F-148AF95C6236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="23955" windowHeight="9300"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20940" windowHeight="11556" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Msg" sheetId="1" r:id="rId1"/>
     <sheet name="Key" sheetId="4" r:id="rId2"/>
     <sheet name="Answer" sheetId="5" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId5"/>
+    <sheet name="Msg (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Answer!$C$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Key!$C$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Msg!$C$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Msg (2)'!$C$1:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Ответы:</t>
   </si>
@@ -134,12 +153,48 @@
   </si>
   <si>
     <t>CAN FILTER SET</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>LUXDATA_SHOW</t>
+  </si>
+  <si>
+    <t>VBAT_SHOW</t>
+  </si>
+  <si>
+    <t>VSOLAR_SHOW</t>
+  </si>
+  <si>
+    <t>TIME_SHOW</t>
+  </si>
+  <si>
+    <t>TIME_SET</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,6 +249,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -241,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,9 +332,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +384,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -484,29 +576,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -544,9 +636,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B2)</f>
+        <f t="shared" ref="A2:A26" si="0">CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B2)</f>
         <v>#define m_#			 1</v>
       </c>
       <c r="B2">
@@ -556,35 +648,35 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <f>CODE(MID($C2,D$1,1))</f>
+        <f t="shared" ref="D2:K11" si="1">CODE(MID($C2,D$1,1))</f>
         <v>35</v>
       </c>
       <c r="E2" t="e">
-        <f>CODE(MID($C2,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F2" t="e">
-        <f>CODE(MID($C2,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="G2" t="e">
-        <f>CODE(MID($C2,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H2" t="e">
-        <f>CODE(MID($C2,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I2" t="e">
-        <f>CODE(MID($C2,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J2" t="e">
-        <f>CODE(MID($C2,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K2" t="e">
-        <f>CODE(MID($C2,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="L2" t="str">
@@ -592,9 +684,9 @@
         <v>_#_</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B3)</f>
+        <f t="shared" si="0"/>
         <v>#define m_?			 2</v>
       </c>
       <c r="B3">
@@ -604,45 +696,45 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <f>CODE(MID($C3,D$1,1))</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="E3" t="e">
-        <f>CODE(MID($C3,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F3" t="e">
-        <f>CODE(MID($C3,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="G3" t="e">
-        <f>CODE(MID($C3,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H3" t="e">
-        <f>CODE(MID($C3,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I3" t="e">
-        <f>CODE(MID($C3,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J3" t="e">
-        <f>CODE(MID($C3,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K3" t="e">
-        <f>CODE(MID($C3,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="L3" t="str">
-        <f>CONCATENATE(L2,C3,"_",)</f>
+        <f t="shared" ref="L3:L10" si="2">CONCATENATE(L2,C3,"_",)</f>
         <v>_#_?_</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B4)</f>
+        <f t="shared" si="0"/>
         <v>#define m_1WIRE_DETECT			 3</v>
       </c>
       <c r="B4">
@@ -652,45 +744,45 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <f>CODE(MID($C4,D$1,1))</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="E4">
-        <f>CODE(MID($C4,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="F4">
-        <f>CODE(MID($C4,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="G4">
-        <f>CODE(MID($C4,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="H4">
-        <f>CODE(MID($C4,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="I4">
-        <f>CODE(MID($C4,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="J4">
-        <f>CODE(MID($C4,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="K4">
-        <f>CODE(MID($C4,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="L4" t="str">
-        <f>CONCATENATE(L3,C4,"_",)</f>
+        <f t="shared" si="2"/>
         <v>_#_?_1WIRE DETECT_</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B5)</f>
+        <f t="shared" si="0"/>
         <v>#define m_1WIRE_SHOW_COUNT			 4</v>
       </c>
       <c r="B5">
@@ -700,45 +792,45 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <f>CODE(MID($C5,D$1,1))</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="E5">
-        <f>CODE(MID($C5,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="F5">
-        <f>CODE(MID($C5,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="G5">
-        <f>CODE(MID($C5,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="H5">
-        <f>CODE(MID($C5,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="I5">
-        <f>CODE(MID($C5,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="J5">
-        <f>CODE(MID($C5,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="K5">
-        <f>CODE(MID($C5,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="L5" t="str">
-        <f>CONCATENATE(L4,C5,"_",)</f>
+        <f t="shared" si="2"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B6)</f>
+        <f t="shared" si="0"/>
         <v>#define m_1WIRE_SHOW_ID			 5</v>
       </c>
       <c r="B6">
@@ -748,45 +840,45 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <f>CODE(MID($C6,D$1,1))</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="E6">
-        <f>CODE(MID($C6,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="F6">
-        <f>CODE(MID($C6,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="G6">
-        <f>CODE(MID($C6,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="H6">
-        <f>CODE(MID($C6,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="I6">
-        <f>CODE(MID($C6,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="J6">
-        <f>CODE(MID($C6,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="K6">
-        <f>CODE(MID($C6,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="L6" t="str">
-        <f>CONCATENATE(L5,C6,"_",)</f>
+        <f t="shared" si="2"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B7)</f>
+        <f t="shared" si="0"/>
         <v>#define m_1WIRE_WORK			 6</v>
       </c>
       <c r="B7">
@@ -796,45 +888,45 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <f>CODE(MID($C7,D$1,1))</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="E7">
-        <f>CODE(MID($C7,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="F7">
-        <f>CODE(MID($C7,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="G7">
-        <f>CODE(MID($C7,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="H7">
-        <f>CODE(MID($C7,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="I7">
-        <f>CODE(MID($C7,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="J7">
-        <f>CODE(MID($C7,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="K7">
-        <f>CODE(MID($C7,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="L7" t="str">
-        <f>CONCATENATE(L6,C7,"_",)</f>
+        <f t="shared" si="2"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B8)</f>
+        <f t="shared" si="0"/>
         <v>#define m_BEAN_SEND			 7</v>
       </c>
       <c r="B8">
@@ -844,45 +936,45 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <f>CODE(MID($C8,D$1,1))</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="E8">
-        <f>CODE(MID($C8,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="F8">
-        <f>CODE(MID($C8,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="G8">
-        <f>CODE(MID($C8,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="H8">
-        <f>CODE(MID($C8,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I8">
-        <f>CODE(MID($C8,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="J8">
-        <f>CODE(MID($C8,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="K8">
-        <f>CODE(MID($C8,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="L8" t="str">
-        <f>CONCATENATE(L7,C8,"_",)</f>
+        <f t="shared" si="2"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B9)</f>
+        <f t="shared" si="0"/>
         <v>#define m_BEAN_SHOW			 8</v>
       </c>
       <c r="B9">
@@ -892,45 +984,45 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <f>CODE(MID($C9,D$1,1))</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="E9">
-        <f>CODE(MID($C9,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="F9">
-        <f>CODE(MID($C9,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="G9">
-        <f>CODE(MID($C9,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="H9">
-        <f>CODE(MID($C9,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I9">
-        <f>CODE(MID($C9,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="J9">
-        <f>CODE(MID($C9,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="K9">
-        <f>CODE(MID($C9,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="L9" t="str">
-        <f>CONCATENATE(L8,C9,"_",)</f>
+        <f t="shared" si="2"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B10)</f>
+        <f t="shared" si="0"/>
         <v>#define m_BEAN_TEST_SIGNAL			 9</v>
       </c>
       <c r="B10">
@@ -940,45 +1032,45 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <f>CODE(MID($C10,D$1,1))</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="E10">
-        <f>CODE(MID($C10,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="F10">
-        <f>CODE(MID($C10,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="G10">
-        <f>CODE(MID($C10,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="H10">
-        <f>CODE(MID($C10,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I10">
-        <f>CODE(MID($C10,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="J10">
-        <f>CODE(MID($C10,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="K10">
-        <f>CODE(MID($C10,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="L10" t="str">
-        <f>CONCATENATE(L9,C10,"_",)</f>
+        <f t="shared" si="2"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B11)</f>
+        <f t="shared" si="0"/>
         <v>#define m_CAN_FILTER_SET			 10</v>
       </c>
       <c r="B11">
@@ -988,45 +1080,45 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <f>CODE(MID($C11,D$1,1))</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="E11">
-        <f>CODE(MID($C11,E$1,1))</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="F11">
-        <f>CODE(MID($C11,F$1,1))</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="G11">
-        <f>CODE(MID($C11,G$1,1))</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="H11">
-        <f>CODE(MID($C11,H$1,1))</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I11">
-        <f>CODE(MID($C11,I$1,1))</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="J11">
-        <f>CODE(MID($C11,J$1,1))</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="K11">
-        <f>CODE(MID($C11,K$1,1))</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L26" si="0">CONCATENATE(L10,C11,"_",)</f>
+        <f t="shared" ref="L11:L26" si="3">CONCATENATE(L10,C11,"_",)</f>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B12)</f>
+        <f t="shared" si="0"/>
         <v>#define m_CAN_SEND			 11</v>
       </c>
       <c r="B12">
@@ -1036,45 +1128,45 @@
         <v>32</v>
       </c>
       <c r="D12">
-        <f>CODE(MID($C12,D$1,1))</f>
+        <f t="shared" ref="D12:K26" si="4">CODE(MID($C12,D$1,1))</f>
         <v>67</v>
       </c>
       <c r="E12">
-        <f>CODE(MID($C12,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="F12">
-        <f>CODE(MID($C12,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="G12">
-        <f>CODE(MID($C12,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H12">
-        <f>CODE(MID($C12,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="I12">
-        <f>CODE(MID($C12,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="J12">
-        <f>CODE(MID($C12,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="K12">
-        <f>CODE(MID($C12,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B13)</f>
+        <f t="shared" si="0"/>
         <v>#define m_CAN_SHOW			 12</v>
       </c>
       <c r="B13">
@@ -1084,45 +1176,45 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <f>CODE(MID($C13,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="E13">
-        <f>CODE(MID($C13,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="F13">
-        <f>CODE(MID($C13,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="G13">
-        <f>CODE(MID($C13,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H13">
-        <f>CODE(MID($C13,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="I13">
-        <f>CODE(MID($C13,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="J13">
-        <f>CODE(MID($C13,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="K13">
-        <f>CODE(MID($C13,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C14,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B14)</f>
+        <f t="shared" si="0"/>
         <v>#define m_CAN_TEST_SIGNAL			 13</v>
       </c>
       <c r="B14">
@@ -1132,45 +1224,45 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <f>CODE(MID($C14,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="E14">
-        <f>CODE(MID($C14,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="F14">
-        <f>CODE(MID($C14,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="G14">
-        <f>CODE(MID($C14,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H14">
-        <f>CODE(MID($C14,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="I14">
-        <f>CODE(MID($C14,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="J14">
-        <f>CODE(MID($C14,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="K14">
-        <f>CODE(MID($C14,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C15,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B15)</f>
+        <f t="shared" si="0"/>
         <v>#define m_CONNECT			 14</v>
       </c>
       <c r="B15">
@@ -1180,45 +1272,45 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <f>CODE(MID($C15,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="E15">
-        <f>CODE(MID($C15,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="F15">
-        <f>CODE(MID($C15,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="G15">
-        <f>CODE(MID($C15,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="H15">
-        <f>CODE(MID($C15,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="I15">
-        <f>CODE(MID($C15,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="J15">
-        <f>CODE(MID($C15,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="K15" t="e">
-        <f>CODE(MID($C15,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C16,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B16)</f>
+        <f t="shared" si="0"/>
         <v>#define m_DS18B20_REQUEST			 15</v>
       </c>
       <c r="B16">
@@ -1228,45 +1320,45 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <f>CODE(MID($C16,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="E16">
-        <f>CODE(MID($C16,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="F16">
-        <f>CODE(MID($C16,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="G16">
-        <f>CODE(MID($C16,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="H16">
-        <f>CODE(MID($C16,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="I16">
-        <f>CODE(MID($C16,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="J16">
-        <f>CODE(MID($C16,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="K16">
-        <f>CODE(MID($C16,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B17)</f>
+        <f t="shared" si="0"/>
         <v>#define m_DS18B20_SHOW_TEMP			 16</v>
       </c>
       <c r="B17">
@@ -1276,45 +1368,45 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <f>CODE(MID($C17,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="E17">
-        <f>CODE(MID($C17,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="F17">
-        <f>CODE(MID($C17,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="G17">
-        <f>CODE(MID($C17,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="H17">
-        <f>CODE(MID($C17,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="I17">
-        <f>CODE(MID($C17,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="J17">
-        <f>CODE(MID($C17,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="K17">
-        <f>CODE(MID($C17,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C18,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B18)</f>
+        <f t="shared" si="0"/>
         <v>#define m_HEATER1			 17</v>
       </c>
       <c r="B18">
@@ -1324,45 +1416,45 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <f>CODE(MID($C18,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="E18">
-        <f>CODE(MID($C18,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="F18">
-        <f>CODE(MID($C18,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="G18">
-        <f>CODE(MID($C18,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="H18">
-        <f>CODE(MID($C18,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="I18">
-        <f>CODE(MID($C18,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J18">
-        <f>CODE(MID($C18,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="K18" t="e">
-        <f>CODE(MID($C18,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_HEATER1_</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C19,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B19)</f>
+        <f t="shared" si="0"/>
         <v>#define m_HEATER2			 18</v>
       </c>
       <c r="B19">
@@ -1372,45 +1464,45 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <f>CODE(MID($C19,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="E19">
-        <f>CODE(MID($C19,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="F19">
-        <f>CODE(MID($C19,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="G19">
-        <f>CODE(MID($C19,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="H19">
-        <f>CODE(MID($C19,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="I19">
-        <f>CODE(MID($C19,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J19">
-        <f>CODE(MID($C19,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="K19" t="e">
-        <f>CODE(MID($C19,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_HEATER1_HEATER2_</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B20)</f>
+        <f t="shared" si="0"/>
         <v>#define m_HEATER3			 19</v>
       </c>
       <c r="B20">
@@ -1420,45 +1512,45 @@
         <v>12</v>
       </c>
       <c r="D20">
-        <f>CODE(MID($C20,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="E20">
-        <f>CODE(MID($C20,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="F20">
-        <f>CODE(MID($C20,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="G20">
-        <f>CODE(MID($C20,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="H20">
-        <f>CODE(MID($C20,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="I20">
-        <f>CODE(MID($C20,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J20">
-        <f>CODE(MID($C20,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="K20" t="e">
-        <f>CODE(MID($C20,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_HEATER1_HEATER2_HEATER3_</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B21)</f>
+        <f t="shared" si="0"/>
         <v>#define m_HEATER4			 20</v>
       </c>
       <c r="B21">
@@ -1468,45 +1560,45 @@
         <v>13</v>
       </c>
       <c r="D21">
-        <f>CODE(MID($C21,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="E21">
-        <f>CODE(MID($C21,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="F21">
-        <f>CODE(MID($C21,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="G21">
-        <f>CODE(MID($C21,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="H21">
-        <f>CODE(MID($C21,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="I21">
-        <f>CODE(MID($C21,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J21">
-        <f>CODE(MID($C21,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="K21" t="e">
-        <f>CODE(MID($C21,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_HEATER1_HEATER2_HEATER3_HEATER4_</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B22)</f>
+        <f t="shared" si="0"/>
         <v>#define m_LC_DRL_DEMO			 21</v>
       </c>
       <c r="B22">
@@ -1516,45 +1608,45 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <f>CODE(MID($C22,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="E22">
-        <f>CODE(MID($C22,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="F22">
-        <f>CODE(MID($C22,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="G22">
-        <f>CODE(MID($C22,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="H22">
-        <f>CODE(MID($C22,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="I22">
-        <f>CODE(MID($C22,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="J22">
-        <f>CODE(MID($C22,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K22">
-        <f>CODE(MID($C22,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_HEATER1_HEATER2_HEATER3_HEATER4_LC DRL DEMO_</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C23,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B23)</f>
+        <f t="shared" si="0"/>
         <v>#define m_LC_DRL_LED			 22</v>
       </c>
       <c r="B23">
@@ -1564,45 +1656,45 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <f>CODE(MID($C23,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="E23">
-        <f>CODE(MID($C23,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="F23">
-        <f>CODE(MID($C23,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="G23">
-        <f>CODE(MID($C23,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="H23">
-        <f>CODE(MID($C23,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="I23">
-        <f>CODE(MID($C23,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="J23">
-        <f>CODE(MID($C23,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K23">
-        <f>CODE(MID($C23,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_HEATER1_HEATER2_HEATER3_HEATER4_LC DRL DEMO_LC DRL LED_</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C24,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B24)</f>
+        <f t="shared" si="0"/>
         <v>#define m_LCD_TEMP_SHOW			 23</v>
       </c>
       <c r="B24">
@@ -1612,45 +1704,45 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <f>CODE(MID($C24,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="E24">
-        <f>CODE(MID($C24,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="F24">
-        <f>CODE(MID($C24,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="G24">
-        <f>CODE(MID($C24,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H24">
-        <f>CODE(MID($C24,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="I24">
-        <f>CODE(MID($C24,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="J24">
-        <f>CODE(MID($C24,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="K24">
-        <f>CODE(MID($C24,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_HEATER1_HEATER2_HEATER3_HEATER4_LC DRL DEMO_LC DRL LED_LCD TEMP SHOW_</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C25,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B25)</f>
+        <f t="shared" si="0"/>
         <v>#define m_RELAY			 24</v>
       </c>
       <c r="B25">
@@ -1660,45 +1752,45 @@
         <v>14</v>
       </c>
       <c r="D25">
-        <f>CODE(MID($C25,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="E25">
-        <f>CODE(MID($C25,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="F25">
-        <f>CODE(MID($C25,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="G25">
-        <f>CODE(MID($C25,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="H25">
-        <f>CODE(MID($C25,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="I25" t="e">
-        <f>CODE(MID($C25,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="J25" t="e">
-        <f>CODE(MID($C25,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K25" t="e">
-        <f>CODE(MID($C25,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_HEATER1_HEATER2_HEATER3_HEATER4_LC DRL DEMO_LC DRL LED_LCD TEMP SHOW_RELAY_</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C26,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B26)</f>
+        <f t="shared" si="0"/>
         <v>#define m_RESET			 25</v>
       </c>
       <c r="B26">
@@ -1708,45 +1800,45 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <f>CODE(MID($C26,D$1,1))</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="E26">
-        <f>CODE(MID($C26,E$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="F26">
-        <f>CODE(MID($C26,F$1,1))</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="G26">
-        <f>CODE(MID($C26,G$1,1))</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="H26">
-        <f>CODE(MID($C26,H$1,1))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="I26" t="e">
-        <f>CODE(MID($C26,I$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="J26" t="e">
-        <f>CODE(MID($C26,J$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="K26" t="e">
-        <f>CODE(MID($C26,K$1,1))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>_#_?_1WIRE DETECT_1WIRE SHOW COUNT_1WIRE SHOW ID_1WIRE WORK_BEAN SEND_BEAN SHOW_BEAN TEST SIGNAL_CAN FILTER SET_CAN SEND_CAN SHOW_CAN TEST SIGNAL_CONNECT_DS18B20 REQUEST_DS18B20 SHOW TEMP_HEATER1_HEATER2_HEATER3_HEATER4_LC DRL DEMO_LC DRL LED_LCD TEMP SHOW_RELAY_RESET_</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C4">
-    <sortState ref="A2:L26">
+  <autoFilter ref="C1:C4" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
       <sortCondition ref="C1:C4"/>
     </sortState>
   </autoFilter>
@@ -1756,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -1764,21 +1856,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1816,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>CONCATENATE("#define k_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B2)</f>
         <v>#define k_0			 1</v>
@@ -1864,7 +1956,7 @@
         <v>_0_</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A15" si="1">CONCATENATE("#define k_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B3)</f>
         <v>#define k_1			 2</v>
@@ -1912,7 +2004,7 @@
         <v>_0_1_</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="1"/>
         <v>#define k_DISABLE			 3</v>
@@ -1960,7 +2052,7 @@
         <v>_0_1_DISABLE_</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="1"/>
         <v>#define k_ENABLE			 4</v>
@@ -2008,7 +2100,7 @@
         <v>_0_1_DISABLE_ENABLE_</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="1"/>
         <v>#define k_OFF			 5</v>
@@ -2056,7 +2148,7 @@
         <v>_0_1_DISABLE_ENABLE_OFF_</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
         <v>#define k_ON			 6</v>
@@ -2104,7 +2196,7 @@
         <v>_0_1_DISABLE_ENABLE_OFF_ON_</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">#define k_			 </v>
@@ -2146,7 +2238,7 @@
         <v>_0_1_DISABLE_ENABLE_OFF_ON__</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">#define k_			 </v>
@@ -2188,7 +2280,7 @@
         <v>_0_1_DISABLE_ENABLE_OFF_ON___</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">#define k_			 </v>
@@ -2230,7 +2322,7 @@
         <v>_0_1_DISABLE_ENABLE_OFF_ON____</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">#define k_			 </v>
@@ -2272,7 +2364,7 @@
         <v>_0_1_DISABLE_ENABLE_OFF_ON_____</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">#define k_			 </v>
@@ -2314,7 +2406,7 @@
         <v>_0_1_DISABLE_ENABLE_OFF_ON______</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">#define k_			 </v>
@@ -2356,7 +2448,7 @@
         <v>_0_1_DISABLE_ENABLE_OFF_ON_______</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">#define k_			 </v>
@@ -2398,7 +2490,7 @@
         <v>_0_1_DISABLE_ENABLE_OFF_ON________</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">#define k_			 </v>
@@ -2441,8 +2533,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C4">
-    <sortState ref="A2:L15">
+  <autoFilter ref="C1:C4" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L15">
       <sortCondition ref="C1:C4"/>
     </sortState>
   </autoFilter>
@@ -2452,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -2460,21 +2552,21 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2512,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A15" si="0">CONCATENATE("#define a_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B2)</f>
         <v>#define a_DISABLE			 1</v>
@@ -2560,7 +2652,7 @@
         <v>_DISABLE_</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>#define a_ENABLE			 2</v>
@@ -2608,7 +2700,7 @@
         <v>_DISABLE_ENABLE_</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>#define a_ERROR			 3</v>
@@ -2656,7 +2748,7 @@
         <v>_DISABLE_ENABLE_ERROR_</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>#define a_OFF			 4</v>
@@ -2704,7 +2796,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>#define a_OK			 5</v>
@@ -2752,7 +2844,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_OK_</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>#define a_ON			 6</v>
@@ -2800,7 +2892,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_OK_ON_</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define a_			 </v>
@@ -2842,7 +2934,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_OK_ON__</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define a_			 </v>
@@ -2884,7 +2976,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_OK_ON___</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define a_			 </v>
@@ -2926,7 +3018,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_OK_ON____</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define a_			 </v>
@@ -2968,7 +3060,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_OK_ON_____</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define a_			 </v>
@@ -3010,7 +3102,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_OK_ON______</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define a_			 </v>
@@ -3052,7 +3144,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_OK_ON_______</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define a_			 </v>
@@ -3094,7 +3186,7 @@
         <v>_DISABLE_ENABLE_ERROR_OFF_OK_ON________</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define a_			 </v>
@@ -3137,8 +3229,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C4">
-    <sortState ref="A2:L15">
+  <autoFilter ref="C1:C4" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L15">
       <sortCondition ref="C1:C4"/>
     </sortState>
   </autoFilter>
@@ -3148,26 +3240,1267 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FF256F-C20F-44BB-826B-02D988A00BBC}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B2)</f>
+        <v>#define m_?			 1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>CODE(MID($C2,D$1,1))</f>
+        <v>63</v>
+      </c>
+      <c r="E2" t="e">
+        <f>CODE(MID($C2,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" t="e">
+        <f>CODE(MID($C2,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>CODE(MID($C2,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" t="e">
+        <f>CODE(MID($C2,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" t="e">
+        <f>CODE(MID($C2,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J2" t="e">
+        <f>CODE(MID($C2,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K2" t="e">
+        <f>CODE(MID($C2,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE("_",C2,"_",)</f>
+        <v>_?_</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B3)</f>
+        <v>#define m_DEBUG			 2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <f>CODE(MID($C3,D$1,1))</f>
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <f>CODE(MID($C3,E$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <f>CODE(MID($C3,F$1,1))</f>
+        <v>66</v>
+      </c>
+      <c r="G3">
+        <f>CODE(MID($C3,G$1,1))</f>
+        <v>85</v>
+      </c>
+      <c r="H3">
+        <f>CODE(MID($C3,H$1,1))</f>
+        <v>71</v>
+      </c>
+      <c r="I3" t="e">
+        <f>CODE(MID($C3,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" t="e">
+        <f>CODE(MID($C3,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" t="e">
+        <f>CODE(MID($C3,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L3" t="str">
+        <f>CONCATENATE(L2,C3,"_",)</f>
+        <v>_?_DEBUG_</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B4)</f>
+        <v>#define m_LED1			 3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <f>CODE(MID($C4,D$1,1))</f>
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <f>CODE(MID($C4,E$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <f>CODE(MID($C4,F$1,1))</f>
+        <v>68</v>
+      </c>
+      <c r="G4">
+        <f>CODE(MID($C4,G$1,1))</f>
+        <v>49</v>
+      </c>
+      <c r="H4" t="e">
+        <f>CODE(MID($C4,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" t="e">
+        <f>CODE(MID($C4,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" t="e">
+        <f>CODE(MID($C4,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" t="e">
+        <f>CODE(MID($C4,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L26" si="0">CONCATENATE(L3,C4,"_",)</f>
+        <v>_?_DEBUG_LED1_</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B5)</f>
+        <v>#define m_LED2			 4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <f>CODE(MID($C5,D$1,1))</f>
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <f>CODE(MID($C5,E$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <f>CODE(MID($C5,F$1,1))</f>
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <f>CODE(MID($C5,G$1,1))</f>
+        <v>50</v>
+      </c>
+      <c r="H5" t="e">
+        <f>CODE(MID($C5,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" t="e">
+        <f>CODE(MID($C5,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" t="e">
+        <f>CODE(MID($C5,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" t="e">
+        <f>CODE(MID($C5,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B6)</f>
+        <v>#define m_LED3			 5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <f>CODE(MID($C6,D$1,1))</f>
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <f>CODE(MID($C6,E$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <f>CODE(MID($C6,F$1,1))</f>
+        <v>68</v>
+      </c>
+      <c r="G6">
+        <f>CODE(MID($C6,G$1,1))</f>
+        <v>51</v>
+      </c>
+      <c r="H6" t="e">
+        <f>CODE(MID($C6,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" t="e">
+        <f>CODE(MID($C6,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" t="e">
+        <f>CODE(MID($C6,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" t="e">
+        <f>CODE(MID($C6,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B7)</f>
+        <v>#define m_LED4			 6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <f>CODE(MID($C7,D$1,1))</f>
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <f>CODE(MID($C7,E$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <f>CODE(MID($C7,F$1,1))</f>
+        <v>68</v>
+      </c>
+      <c r="G7">
+        <f>CODE(MID($C7,G$1,1))</f>
+        <v>52</v>
+      </c>
+      <c r="H7" t="e">
+        <f>CODE(MID($C7,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" t="e">
+        <f>CODE(MID($C7,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" t="e">
+        <f>CODE(MID($C7,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" t="e">
+        <f>CODE(MID($C7,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B8)</f>
+        <v>#define m_LED5			 7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <f>CODE(MID($C8,D$1,1))</f>
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <f>CODE(MID($C8,E$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <f>CODE(MID($C8,F$1,1))</f>
+        <v>68</v>
+      </c>
+      <c r="G8">
+        <f>CODE(MID($C8,G$1,1))</f>
+        <v>53</v>
+      </c>
+      <c r="H8" t="e">
+        <f>CODE(MID($C8,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" t="e">
+        <f>CODE(MID($C8,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" t="e">
+        <f>CODE(MID($C8,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" t="e">
+        <f>CODE(MID($C8,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B9)</f>
+        <v>#define m_LED6			 8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <f>CODE(MID($C9,D$1,1))</f>
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <f>CODE(MID($C9,E$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="F9">
+        <f>CODE(MID($C9,F$1,1))</f>
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <f>CODE(MID($C9,G$1,1))</f>
+        <v>54</v>
+      </c>
+      <c r="H9" t="e">
+        <f>CODE(MID($C9,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" t="e">
+        <f>CODE(MID($C9,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" t="e">
+        <f>CODE(MID($C9,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" t="e">
+        <f>CODE(MID($C9,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B10)</f>
+        <v>#define m_LUXDATA_SHOW			 9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <f>CODE(MID($C10,D$1,1))</f>
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <f>CODE(MID($C10,E$1,1))</f>
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <f>CODE(MID($C10,F$1,1))</f>
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <f>CODE(MID($C10,G$1,1))</f>
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <f>CODE(MID($C10,H$1,1))</f>
+        <v>65</v>
+      </c>
+      <c r="I10">
+        <f>CODE(MID($C10,I$1,1))</f>
+        <v>84</v>
+      </c>
+      <c r="J10">
+        <f>CODE(MID($C10,J$1,1))</f>
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <f>CODE(MID($C10,K$1,1))</f>
+        <v>95</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B11)</f>
+        <v>#define m_RELAY			 10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <f>CODE(MID($C11,D$1,1))</f>
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <f>CODE(MID($C11,E$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <f>CODE(MID($C11,F$1,1))</f>
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <f>CODE(MID($C11,G$1,1))</f>
+        <v>65</v>
+      </c>
+      <c r="H11">
+        <f>CODE(MID($C11,H$1,1))</f>
+        <v>89</v>
+      </c>
+      <c r="I11" t="e">
+        <f>CODE(MID($C11,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" t="e">
+        <f>CODE(MID($C11,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" t="e">
+        <f>CODE(MID($C11,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B12)</f>
+        <v>#define m_RESET			 11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>CODE(MID($C12,D$1,1))</f>
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <f>CODE(MID($C12,E$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <f>CODE(MID($C12,F$1,1))</f>
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <f>CODE(MID($C12,G$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <f>CODE(MID($C12,H$1,1))</f>
+        <v>84</v>
+      </c>
+      <c r="I12" t="e">
+        <f>CODE(MID($C12,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" t="e">
+        <f>CODE(MID($C12,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" t="e">
+        <f>CODE(MID($C12,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B13)</f>
+        <v>#define m_TIME_SET			 12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <f>CODE(MID($C13,D$1,1))</f>
+        <v>84</v>
+      </c>
+      <c r="E13">
+        <f>CODE(MID($C13,E$1,1))</f>
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <f>CODE(MID($C13,F$1,1))</f>
+        <v>77</v>
+      </c>
+      <c r="G13">
+        <f>CODE(MID($C13,G$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="H13">
+        <f>CODE(MID($C13,H$1,1))</f>
+        <v>95</v>
+      </c>
+      <c r="I13">
+        <f>CODE(MID($C13,I$1,1))</f>
+        <v>83</v>
+      </c>
+      <c r="J13">
+        <f>CODE(MID($C13,J$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="K13">
+        <f>CODE(MID($C13,K$1,1))</f>
+        <v>84</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C14,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B14)</f>
+        <v>#define m_TIME_SHOW			 13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <f>CODE(MID($C14,D$1,1))</f>
+        <v>84</v>
+      </c>
+      <c r="E14">
+        <f>CODE(MID($C14,E$1,1))</f>
+        <v>73</v>
+      </c>
+      <c r="F14">
+        <f>CODE(MID($C14,F$1,1))</f>
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <f>CODE(MID($C14,G$1,1))</f>
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <f>CODE(MID($C14,H$1,1))</f>
+        <v>95</v>
+      </c>
+      <c r="I14">
+        <f>CODE(MID($C14,I$1,1))</f>
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <f>CODE(MID($C14,J$1,1))</f>
+        <v>72</v>
+      </c>
+      <c r="K14">
+        <f>CODE(MID($C14,K$1,1))</f>
+        <v>79</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C15,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B15)</f>
+        <v>#define m_VBAT_SHOW			 14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <f>CODE(MID($C15,D$1,1))</f>
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <f>CODE(MID($C15,E$1,1))</f>
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <f>CODE(MID($C15,F$1,1))</f>
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <f>CODE(MID($C15,G$1,1))</f>
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <f>CODE(MID($C15,H$1,1))</f>
+        <v>95</v>
+      </c>
+      <c r="I15">
+        <f>CODE(MID($C15,I$1,1))</f>
+        <v>83</v>
+      </c>
+      <c r="J15">
+        <f>CODE(MID($C15,J$1,1))</f>
+        <v>72</v>
+      </c>
+      <c r="K15">
+        <f>CODE(MID($C15,K$1,1))</f>
+        <v>79</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C16,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B16)</f>
+        <v>#define m_VSOLAR_SHOW			 15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <f>CODE(MID($C16,D$1,1))</f>
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <f>CODE(MID($C16,E$1,1))</f>
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <f>CODE(MID($C16,F$1,1))</f>
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <f>CODE(MID($C16,G$1,1))</f>
+        <v>76</v>
+      </c>
+      <c r="H16">
+        <f>CODE(MID($C16,H$1,1))</f>
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <f>CODE(MID($C16,I$1,1))</f>
+        <v>82</v>
+      </c>
+      <c r="J16">
+        <f>CODE(MID($C16,J$1,1))</f>
+        <v>95</v>
+      </c>
+      <c r="K16">
+        <f>CODE(MID($C16,K$1,1))</f>
+        <v>83</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW_</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B17)</f>
+        <v>#define m_			 16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="e">
+        <f>CODE(MID($C17,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" t="e">
+        <f>CODE(MID($C17,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" t="e">
+        <f>CODE(MID($C17,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" t="e">
+        <f>CODE(MID($C17,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" t="e">
+        <f>CODE(MID($C17,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" t="e">
+        <f>CODE(MID($C17,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" t="e">
+        <f>CODE(MID($C17,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" t="e">
+        <f>CODE(MID($C17,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" t="str">
+        <f>CONCATENATE(L16,C17,"_",)</f>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW__</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C18,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B18)</f>
+        <v>#define m_			 17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="e">
+        <f>CODE(MID($C18,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" t="e">
+        <f>CODE(MID($C18,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="e">
+        <f>CODE(MID($C18,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" t="e">
+        <f>CODE(MID($C18,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" t="e">
+        <f>CODE(MID($C18,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" t="e">
+        <f>CODE(MID($C18,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" t="e">
+        <f>CODE(MID($C18,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" t="e">
+        <f>CODE(MID($C18,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW___</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C19,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B19)</f>
+        <v>#define m_			 18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="e">
+        <f>CODE(MID($C19,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="e">
+        <f>CODE(MID($C19,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="e">
+        <f>CODE(MID($C19,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" t="e">
+        <f>CODE(MID($C19,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" t="e">
+        <f>CODE(MID($C19,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" t="e">
+        <f>CODE(MID($C19,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J19" t="e">
+        <f>CODE(MID($C19,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" t="e">
+        <f>CODE(MID($C19,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW____</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B20)</f>
+        <v>#define m_			 19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="e">
+        <f>CODE(MID($C20,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" t="e">
+        <f>CODE(MID($C20,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" t="e">
+        <f>CODE(MID($C20,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" t="e">
+        <f>CODE(MID($C20,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" t="e">
+        <f>CODE(MID($C20,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" t="e">
+        <f>CODE(MID($C20,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J20" t="e">
+        <f>CODE(MID($C20,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" t="e">
+        <f>CODE(MID($C20,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW_____</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B21)</f>
+        <v>#define m_			 20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="e">
+        <f>CODE(MID($C21,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" t="e">
+        <f>CODE(MID($C21,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" t="e">
+        <f>CODE(MID($C21,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" t="e">
+        <f>CODE(MID($C21,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" t="e">
+        <f>CODE(MID($C21,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" t="e">
+        <f>CODE(MID($C21,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J21" t="e">
+        <f>CODE(MID($C21,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" t="e">
+        <f>CODE(MID($C21,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW______</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B22)</f>
+        <v>#define m_			 21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="e">
+        <f>CODE(MID($C22,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" t="e">
+        <f>CODE(MID($C22,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" t="e">
+        <f>CODE(MID($C22,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" t="e">
+        <f>CODE(MID($C22,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" t="e">
+        <f>CODE(MID($C22,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" t="e">
+        <f>CODE(MID($C22,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J22" t="e">
+        <f>CODE(MID($C22,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" t="e">
+        <f>CODE(MID($C22,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW_______</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C23,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B23)</f>
+        <v>#define m_			 22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="e">
+        <f>CODE(MID($C23,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" t="e">
+        <f>CODE(MID($C23,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" t="e">
+        <f>CODE(MID($C23,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" t="e">
+        <f>CODE(MID($C23,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" t="e">
+        <f>CODE(MID($C23,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" t="e">
+        <f>CODE(MID($C23,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J23" t="e">
+        <f>CODE(MID($C23,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" t="e">
+        <f>CODE(MID($C23,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW________</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C24,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B24)</f>
+        <v>#define m_			 23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="e">
+        <f>CODE(MID($C24,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" t="e">
+        <f>CODE(MID($C24,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" t="e">
+        <f>CODE(MID($C24,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" t="e">
+        <f>CODE(MID($C24,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" t="e">
+        <f>CODE(MID($C24,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" t="e">
+        <f>CODE(MID($C24,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J24" t="e">
+        <f>CODE(MID($C24,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" t="e">
+        <f>CODE(MID($C24,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW_________</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C25,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B25)</f>
+        <v>#define m_			 24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="e">
+        <f>CODE(MID($C25,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" t="e">
+        <f>CODE(MID($C25,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" t="e">
+        <f>CODE(MID($C25,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" t="e">
+        <f>CODE(MID($C25,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" t="e">
+        <f>CODE(MID($C25,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" t="e">
+        <f>CODE(MID($C25,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J25" t="e">
+        <f>CODE(MID($C25,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" t="e">
+        <f>CODE(MID($C25,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW__________</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>CONCATENATE("#define m_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C26,"+",""),":","")," ","_"),CHAR(9),CHAR(9),CHAR(9)," ",B26)</f>
+        <v>#define m_			 25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="e">
+        <f>CODE(MID($C26,D$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" t="e">
+        <f>CODE(MID($C26,E$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" t="e">
+        <f>CODE(MID($C26,F$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" t="e">
+        <f>CODE(MID($C26,G$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" t="e">
+        <f>CODE(MID($C26,H$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" t="e">
+        <f>CODE(MID($C26,I$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J26" t="e">
+        <f>CODE(MID($C26,J$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" t="e">
+        <f>CODE(MID($C26,K$1,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>_?_DEBUG_LED1_LED2_LED3_LED4_LED5_LED6_LUXDATA_SHOW_RELAY_RESET_TIME_SET_TIME_SHOW_VBAT_SHOW_VSOLAR_SHOW___________</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C4" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
+      <sortCondition ref="C1:C4"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
